--- a/EV Charging Project/summary_EDF.xlsx
+++ b/EV Charging Project/summary_EDF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,421 +508,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F2" t="n">
-        <v>537.6048589181183</v>
+        <v>3286.481594959156</v>
       </c>
       <c r="G2" t="n">
-        <v>371.2918550020532</v>
+        <v>771.8348387830825</v>
       </c>
       <c r="H2" t="n">
-        <v>69.06408095887467</v>
+        <v>23.48514106900619</v>
       </c>
       <c r="I2" t="n">
-        <v>9868.483083156008</v>
+        <v>24379.16642111772</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8401463031768799</v>
+        <v>1.307352304458618</v>
       </c>
       <c r="M2" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ev_charging_power_EDF_heur_2.xlsx</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>49</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1148.106708192779</v>
-      </c>
-      <c r="G3" t="n">
-        <v>789.8486575487575</v>
-      </c>
-      <c r="H3" t="n">
-        <v>68.79575320939017</v>
-      </c>
-      <c r="I3" t="n">
-        <v>26021.10520830618</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.4761998653411865</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ev_charging_power_EDF_heur_3.xlsx</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>608.5488747103507</v>
-      </c>
-      <c r="G4" t="n">
-        <v>488.530326626397</v>
-      </c>
-      <c r="H4" t="n">
-        <v>80.27791142641114</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19611.35827355028</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.3062033653259277</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ev_charging_power_EDF_heur_4.xlsx</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2218.491378501725</v>
-      </c>
-      <c r="G5" t="n">
-        <v>832.9039021448539</v>
-      </c>
-      <c r="H5" t="n">
-        <v>37.54370696303368</v>
-      </c>
-      <c r="I5" t="n">
-        <v>24210.73816556109</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>44</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.7794806957244873</v>
-      </c>
-      <c r="M5" t="n">
         <v>980</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ev_charging_power_EDF_heur_5.xlsx</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>27</v>
-      </c>
-      <c r="E6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2580.097929345054</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1383.885078445205</v>
-      </c>
-      <c r="H6" t="n">
-        <v>53.63692062636155</v>
-      </c>
-      <c r="I6" t="n">
-        <v>53705.66357587346</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>34</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8513731956481934</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ev_charging_power_EDF_heur_6.xlsx</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>45</v>
-      </c>
-      <c r="E7" t="n">
-        <v>163</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4706.35398497372</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3599.547738383912</v>
-      </c>
-      <c r="H7" t="n">
-        <v>76.48272420384059</v>
-      </c>
-      <c r="I7" t="n">
-        <v>124375.5846025535</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>25</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.033236503601074</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ev_charging_power_EDF_heur_7.xlsx</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>85</v>
-      </c>
-      <c r="E8" t="n">
-        <v>289</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8137.361637752827</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6643.699624416781</v>
-      </c>
-      <c r="H8" t="n">
-        <v>81.64439434022097</v>
-      </c>
-      <c r="I8" t="n">
-        <v>277054.3824222456</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>38</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.945439577102661</v>
-      </c>
-      <c r="M8" t="n">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ev_charging_power_EDF_heur_8.xlsx</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>55</v>
-      </c>
-      <c r="E9" t="n">
-        <v>431</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12906.73023186866</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5192.308549170264</v>
-      </c>
-      <c r="H9" t="n">
-        <v>40.22946521613719</v>
-      </c>
-      <c r="I9" t="n">
-        <v>210693.3886558755</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>227</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.362364530563354</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ev_charging_power_EDF_heur_9.xlsx</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>80</v>
-      </c>
-      <c r="E10" t="n">
-        <v>285</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8367.075538017267</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6314.649896223899</v>
-      </c>
-      <c r="H10" t="n">
-        <v>75.47021498171237</v>
-      </c>
-      <c r="I10" t="n">
-        <v>276294.3098671047</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>47</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.791800498962402</v>
-      </c>
-      <c r="M10" t="n">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ev_charging_power_EDF_heur_10.xlsx</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>17</v>
-      </c>
-      <c r="E11" t="n">
-        <v>554</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16074.59894349177</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1872.545434268322</v>
-      </c>
-      <c r="H11" t="n">
-        <v>11.64909582410746</v>
-      </c>
-      <c r="I11" t="n">
-        <v>66531.53976356779</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>497</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7.351265668869019</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2100</v>
       </c>
     </row>
   </sheetData>
